--- a/biology/Botanique/Bulbophyllum/Bulbophyllum.xlsx
+++ b/biology/Botanique/Bulbophyllum/Bulbophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Bulbophyllum est  un genre d'orchidées originaire des régions subtropicales et tropicales d'Asie, d'Australie, de Nouvelle-Zélande, de Nouvelle-Calédonie, d'Afrique et d'Amérique. La plupart sont des plantes épiphytes ou lithophytes. En nombre d'espèces, c'est le plus grand genre dans la famille des orchidées et l'un des plus grands du règne végétal. Il compte plus de 2000 espèces dans des biotopes variés.
 </t>
@@ -511,7 +523,9 @@
           <t>principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On peut citer les espèces suivantes comme exemples de l'extrême variété des formes florales et végétatives que l'on peut trouver dans ce genre:
 Bulbophyllum beccarii
